--- a/新导表工具/DataTables/Datas/战斗表.xlsx
+++ b/新导表工具/DataTables/Datas/战斗表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140"/>
+    <workbookView windowWidth="25600" windowHeight="10600"/>
   </bookViews>
   <sheets>
     <sheet name="战斗表" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>##var</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>10001,10001,10001,10001</t>
+  </si>
+  <si>
+    <t>10001,10001</t>
   </si>
 </sst>
 </file>
@@ -1019,17 +1022,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="9.14285714285714" style="2"/>
+    <col min="1" max="2" width="9.14166666666667" style="2"/>
     <col min="3" max="3" width="24.25" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.14285714285714" style="2"/>
+    <col min="4" max="16384" width="9.14166666666667" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
@@ -1077,6 +1080,14 @@
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="2">
+        <v>20001</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/战斗表.xlsx
+++ b/新导表工具/DataTables/Datas/战斗表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10600"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="战斗表" sheetId="5" r:id="rId1"/>
@@ -56,10 +56,10 @@
     <t>敌人</t>
   </si>
   <si>
-    <t>10001,10001,10001,10001</t>
+    <t>10001,10001</t>
   </si>
   <si>
-    <t>10001,10001</t>
+    <t>10001,10001,10001,10001</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1074,7 +1074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:3">
       <c r="B5" s="2">
         <v>10001</v>
       </c>
@@ -1082,9 +1082,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:3">
       <c r="B6" s="2">
-        <v>20001</v>
+        <v>10002</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
